--- a/biology/Botanique/Danthonidium_gammiei/Danthonidium_gammiei.xlsx
+++ b/biology/Botanique/Danthonidium_gammiei/Danthonidium_gammiei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Danthonidium gammiei  est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Danthonioideae[3], originaire d'Inde. C'est l'unique espèce du genre Danthonidium (genre monotypique).
-Ce sont des plantes herbacées annuelles, cespiteuse, aux tiges pouvant atteindre 60 cm de haut, à inflorescence en racème[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Danthonidium gammiei  est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Danthonioideae, originaire d'Inde. C'est l'unique espèce du genre Danthonidium (genre monotypique).
+Ce sont des plantes herbacées annuelles, cespiteuse, aux tiges pouvant atteindre 60 cm de haut, à inflorescence en racème.
 Étymologie
-le nom générique « Danthonidium » dérive du nom d'un genre voisin, Danthonia, avec le suffixe -idium, diminutif[4] ; l'épithète spécifique, gammiei, est un hommage au botaniste écossais, James Alexander Gammie (1839–1924)[4].</t>
+le nom générique « Danthonidium » dérive du nom d'un genre voisin, Danthonia, avec le suffixe -idium, diminutif ; l'épithète spécifique, gammiei, est un hommage au botaniste écossais, James Alexander Gammie (1839–1924).</t>
         </is>
       </c>
     </row>
